--- a/trunk/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-03-29.xlsx
+++ b/trunk/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-03-29.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Minutes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues From Last Minutes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">Minutes!$B$3</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>FYP Project Meeting Minutes</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Process Flow</t>
+  </si>
+  <si>
+    <t>A sample process flow was drawn on paper and shown to the team members to give an overview of the system</t>
+  </si>
+  <si>
+    <t>Identification of mock up screen and fileds</t>
+  </si>
+  <si>
+    <t>Come up with few sample screens and fields</t>
   </si>
 </sst>
 </file>
@@ -628,18 +640,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -791,12 +803,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>